--- a/Rahmani/FarzanRahmani-Week3.xlsx
+++ b/Rahmani/FarzanRahmani-Week3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Rahmani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB02FF7-8066-4B47-AA8B-205F39C3E56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5738313-013B-4446-B3AA-195CE11505AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3192" yWindow="2592" windowWidth="17280" windowHeight="8964" xr2:uid="{B132E77F-25F4-4952-A9D3-0AE13FE37FD9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B132E77F-25F4-4952-A9D3-0AE13FE37FD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,6 +273,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -283,9 +286,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87DA073-7857-452C-801F-7CF0FE78C183}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,20 +648,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -922,11 +922,11 @@
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="3">
-        <v>3.4722222222222224E-4</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1074,20 +1074,20 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="1">
         <f>SUM(Table1[ساعت])</f>
-        <v>1.135763888888889</v>
+        <v>1.15625</v>
       </c>
     </row>
   </sheetData>
